--- a/Projet_2(organisation)/budget.xlsx
+++ b/Projet_2(organisation)/budget.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -15,7 +15,7 @@
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Feuil1!$A$1:$G$53</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Feuil1!$A$1:$P$53</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="33">
   <si>
     <t>Tâches</t>
   </si>
@@ -38,9 +38,6 @@
     <t>Graphiste web</t>
   </si>
   <si>
-    <t>DA web</t>
-  </si>
-  <si>
     <t>CDP</t>
   </si>
   <si>
@@ -77,9 +74,6 @@
     <t>Validation du client</t>
   </si>
   <si>
-    <t>Développement rubriques et contenus</t>
-  </si>
-  <si>
     <t>Recettage</t>
   </si>
   <si>
@@ -95,17 +89,50 @@
     <t>Total</t>
   </si>
   <si>
-    <t>Rédaction du cahier des charges / planning</t>
-  </si>
-  <si>
     <t>Intégration charte graphique</t>
+  </si>
+  <si>
+    <t>marge</t>
+  </si>
+  <si>
+    <t>Salaire brut mensuel</t>
+  </si>
+  <si>
+    <t>Brut annuel</t>
+  </si>
+  <si>
+    <t>Somme</t>
+  </si>
+  <si>
+    <t>Rédaction du cahier des charges</t>
+  </si>
+  <si>
+    <t>Suivi et plannification</t>
+  </si>
+  <si>
+    <t>Développement rubriques</t>
+  </si>
+  <si>
+    <t>Retouches graphiques</t>
+  </si>
+  <si>
+    <t>Salaire + autres coûts (50%)</t>
+  </si>
+  <si>
+    <t>Coût total + marge</t>
+  </si>
+  <si>
+    <t>Coût avec TVA</t>
+  </si>
+  <si>
+    <t>Montant TVA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -116,6 +143,45 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -160,7 +226,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="47">
     <border>
       <left/>
       <right/>
@@ -372,17 +438,411 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
@@ -391,15 +851,101 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="6" borderId="29" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="28" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="38" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="5" fillId="5" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="6" fillId="5" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="6" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="6" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="2" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="43" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="46" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="5" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -521,6 +1067,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -556,6 +1119,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -708,344 +1288,828 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="40.6640625" customWidth="1"/>
     <col min="2" max="2" width="14.44140625" customWidth="1"/>
-    <col min="3" max="3" width="14.88671875" customWidth="1"/>
+    <col min="3" max="3" width="16.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.44140625" customWidth="1"/>
     <col min="5" max="5" width="14.109375" customWidth="1"/>
-    <col min="6" max="6" width="14.77734375" customWidth="1"/>
+    <col min="6" max="6" width="5.33203125" customWidth="1"/>
+    <col min="7" max="7" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="67"/>
+      <c r="G1" s="62" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="L1" s="57" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="21" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="18">
-        <v>400</v>
-      </c>
-      <c r="C2" s="18">
-        <v>400</v>
-      </c>
-      <c r="D2" s="18">
-        <v>800</v>
-      </c>
-      <c r="E2" s="19">
-        <v>400</v>
-      </c>
-      <c r="F2" s="18">
-        <v>500</v>
-      </c>
-      <c r="G2" s="18"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="5"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="1"/>
+      <c r="B2" s="25">
+        <f>B22/220</f>
+        <v>248.80909090909091</v>
+      </c>
+      <c r="C2" s="10">
+        <f>C22/220</f>
+        <v>212.72727272727272</v>
+      </c>
+      <c r="D2" s="10">
+        <f>D22/220</f>
+        <v>238.58181818181819</v>
+      </c>
+      <c r="E2" s="26">
+        <f>E22/220</f>
+        <v>368.18181818181819</v>
+      </c>
+      <c r="F2" s="68"/>
+      <c r="G2" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="55">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="45" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="47"/>
+      <c r="L3" s="34"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="2"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1">
+      <c r="E4" s="3">
         <v>1</v>
       </c>
-      <c r="G4" s="7">
-        <f>F4*F2</f>
-        <v>500</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="1"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="63">
+        <f>B4*B2</f>
+        <v>0</v>
+      </c>
+      <c r="H4" s="11">
+        <f>C4*C2</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="11">
+        <f>D4*D2</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="11">
+        <f>E4*E2</f>
+        <v>368.18181818181819</v>
+      </c>
+      <c r="K4" s="70">
+        <f>SUM(G4:J4)</f>
+        <v>368.18181818181819</v>
+      </c>
+      <c r="L4" s="58">
+        <f>K4*$L$2</f>
+        <v>478.63636363636368</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="2"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1">
+      <c r="E5" s="3">
+        <v>3</v>
+      </c>
+      <c r="F5" s="68"/>
+      <c r="G5" s="63">
+        <f>B5*B2</f>
+        <v>0</v>
+      </c>
+      <c r="H5" s="11">
+        <f>C5*C2</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="11">
+        <f>D5*D2</f>
+        <v>0</v>
+      </c>
+      <c r="J5" s="11">
+        <f>E5*E2</f>
+        <v>1104.5454545454545</v>
+      </c>
+      <c r="K5" s="70">
+        <f t="shared" ref="K5" si="0">SUM(G5:J5)</f>
+        <v>1104.5454545454545</v>
+      </c>
+      <c r="L5" s="58">
+        <f>K5*$L$2</f>
+        <v>1435.909090909091</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="3">
+        <v>2</v>
+      </c>
+      <c r="F6" s="68"/>
+      <c r="G6" s="63">
+        <f>B6*B2</f>
+        <v>0</v>
+      </c>
+      <c r="H6" s="11">
+        <f>C6*C2</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="11">
+        <f>D6*D2</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="11">
+        <f>E6*E2</f>
+        <v>736.36363636363637</v>
+      </c>
+      <c r="K6" s="70">
+        <f>SUM(G6:J6)</f>
+        <v>736.36363636363637</v>
+      </c>
+      <c r="L6" s="58">
+        <f>K6*$L$2</f>
+        <v>957.27272727272737</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="F7" s="68"/>
+      <c r="G7" s="64">
+        <f>B7*B2</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="17">
+        <f>C7*C2</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="17">
+        <f>D7*D2</f>
+        <v>0</v>
+      </c>
+      <c r="J7" s="17">
+        <f>E7*E2</f>
+        <v>184.09090909090909</v>
+      </c>
+      <c r="K7" s="71">
+        <f>SUM(G7:J7)</f>
+        <v>184.09090909090909</v>
+      </c>
+      <c r="L7" s="59">
+        <f>K7*$L$2</f>
+        <v>239.31818181818184</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="45" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="46" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="47"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="68"/>
+      <c r="G8" s="47" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" s="47"/>
+      <c r="I8" s="47"/>
+      <c r="J8" s="47"/>
+      <c r="K8" s="47"/>
+      <c r="L8" s="34"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="C9" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="D9" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="E9" s="27">
+        <v>0.5</v>
+      </c>
+      <c r="F9" s="68"/>
+      <c r="G9" s="65">
+        <f>B9*B2</f>
+        <v>124.40454545454546</v>
+      </c>
+      <c r="H9" s="19">
+        <f>C9*C2</f>
+        <v>106.36363636363636</v>
+      </c>
+      <c r="I9" s="19">
+        <f>D9*D2</f>
+        <v>119.2909090909091</v>
+      </c>
+      <c r="J9" s="19">
+        <f>E9*E2</f>
+        <v>184.09090909090909</v>
+      </c>
+      <c r="K9" s="72">
+        <f>SUM(G9:J9)</f>
+        <v>534.15</v>
+      </c>
+      <c r="L9" s="58">
+        <f>K9*$L$2</f>
+        <v>694.39499999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="1">
         <v>5</v>
       </c>
-      <c r="G5" s="7">
-        <f>F5*F2</f>
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="9">
+      <c r="D10" s="1"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="68"/>
+      <c r="G10" s="63">
+        <f>B10*B2</f>
+        <v>0</v>
+      </c>
+      <c r="H10" s="11">
+        <f>C10*C2</f>
+        <v>1063.6363636363635</v>
+      </c>
+      <c r="I10" s="11">
+        <f>D10*D2</f>
+        <v>0</v>
+      </c>
+      <c r="J10" s="11">
+        <f>E10*E2</f>
+        <v>0</v>
+      </c>
+      <c r="K10" s="70">
+        <f>SUM(G10:J10)</f>
+        <v>1063.6363636363635</v>
+      </c>
+      <c r="L10" s="58">
+        <f>K10*$L$2</f>
+        <v>1382.7272727272725</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="2">
+        <v>2</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="3">
+        <v>2</v>
+      </c>
+      <c r="F11" s="68"/>
+      <c r="G11" s="63">
+        <f>B11*B2</f>
+        <v>497.61818181818182</v>
+      </c>
+      <c r="H11" s="11">
+        <f>C11*C2</f>
+        <v>0</v>
+      </c>
+      <c r="I11" s="11">
+        <f>D11*D2</f>
+        <v>0</v>
+      </c>
+      <c r="J11" s="11">
+        <f>E11*E2</f>
+        <v>736.36363636363637</v>
+      </c>
+      <c r="K11" s="70">
+        <f>SUM(G11:J11)</f>
+        <v>1233.9818181818182</v>
+      </c>
+      <c r="L11" s="58">
+        <f>K11*$L$2</f>
+        <v>1604.1763636363637</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="1">
+        <v>2</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="68"/>
+      <c r="G12" s="63">
+        <f>B12*B2</f>
+        <v>0</v>
+      </c>
+      <c r="H12" s="11">
+        <f>C12*C2</f>
+        <v>425.45454545454544</v>
+      </c>
+      <c r="I12" s="11">
+        <f>D12*D2</f>
+        <v>0</v>
+      </c>
+      <c r="J12" s="11">
+        <f>E12*E2</f>
+        <v>0</v>
+      </c>
+      <c r="K12" s="70">
+        <f>SUM(G12:J12)</f>
+        <v>425.45454545454544</v>
+      </c>
+      <c r="L12" s="58">
+        <f>K12*$L$2</f>
+        <v>553.09090909090912</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="8">
         <v>0.5</v>
       </c>
-      <c r="G6" s="11">
-        <f>F6*F2</f>
-        <v>250</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="5"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="1">
-        <v>1</v>
-      </c>
-      <c r="C8" s="1">
-        <v>1</v>
-      </c>
-      <c r="D8" s="1">
-        <v>1</v>
-      </c>
-      <c r="E8" s="1">
-        <v>1</v>
-      </c>
-      <c r="F8" s="1">
-        <v>1</v>
-      </c>
-      <c r="G8" s="7">
-        <f>B8*B2+C8*C2+D8*D2+E8*E2+F8*F2</f>
-        <v>2500</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1">
+      <c r="C13" s="6">
         <v>5</v>
       </c>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="7">
-        <f>D9*D2</f>
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="1">
+      <c r="D13" s="6"/>
+      <c r="E13" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="F13" s="68"/>
+      <c r="G13" s="66">
+        <f>B13*B2</f>
+        <v>124.40454545454546</v>
+      </c>
+      <c r="H13" s="12">
+        <f>C13*C2</f>
+        <v>1063.6363636363635</v>
+      </c>
+      <c r="I13" s="12">
+        <f>D13*D2</f>
+        <v>0</v>
+      </c>
+      <c r="J13" s="12">
+        <f>E13*E2</f>
+        <v>184.09090909090909</v>
+      </c>
+      <c r="K13" s="73">
+        <f>SUM(G13:J13)</f>
+        <v>1372.1318181818181</v>
+      </c>
+      <c r="L13" s="60">
+        <f>K13*$L$2</f>
+        <v>1783.7713636363635</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="47"/>
+      <c r="D14" s="47"/>
+      <c r="E14" s="48"/>
+      <c r="F14" s="68"/>
+      <c r="G14" s="47" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="47"/>
+      <c r="I14" s="47"/>
+      <c r="J14" s="47"/>
+      <c r="K14" s="47"/>
+      <c r="L14" s="34"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="32">
         <v>2</v>
-      </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1">
-        <v>2</v>
-      </c>
-      <c r="G10" s="7">
-        <f>F10*F2+B10*B2</f>
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1">
-        <v>2</v>
-      </c>
-      <c r="D11" s="1">
-        <v>2</v>
-      </c>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="7">
-        <f>D11*D2+C11*C2</f>
-        <v>2400</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="G12" s="13">
-        <f>F12*F2+D12*D2+B12*B2</f>
-        <v>850</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="5"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" s="1">
-        <v>2</v>
-      </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="7">
-        <f>B14*B2</f>
-        <v>800</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="1">
-        <v>3</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
-      <c r="E15" s="1">
+      <c r="E15" s="3"/>
+      <c r="F15" s="68"/>
+      <c r="G15" s="63">
+        <f>B15*B2</f>
+        <v>497.61818181818182</v>
+      </c>
+      <c r="H15" s="11">
+        <f>C15*C2</f>
+        <v>0</v>
+      </c>
+      <c r="I15" s="11">
+        <f>D15*D2</f>
+        <v>0</v>
+      </c>
+      <c r="J15" s="11">
+        <f>E15*E2</f>
+        <v>0</v>
+      </c>
+      <c r="K15" s="70">
+        <f>SUM(G15:J15)</f>
+        <v>497.61818181818182</v>
+      </c>
+      <c r="L15" s="58">
+        <f>K15*$L$2</f>
+        <v>646.90363636363634</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="32">
+        <v>2</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1">
+        <v>2</v>
+      </c>
+      <c r="E16" s="3"/>
+      <c r="F16" s="68"/>
+      <c r="G16" s="63">
+        <f>B16*B2</f>
+        <v>497.61818181818182</v>
+      </c>
+      <c r="H16" s="11">
+        <f>C16*C2</f>
+        <v>0</v>
+      </c>
+      <c r="I16" s="11">
+        <f>D16*D2</f>
+        <v>477.16363636363639</v>
+      </c>
+      <c r="J16" s="11">
+        <f>E16*E2</f>
+        <v>0</v>
+      </c>
+      <c r="K16" s="70">
+        <f>SUM(G16:J16)</f>
+        <v>974.78181818181815</v>
+      </c>
+      <c r="L16" s="58">
+        <f>K16*$L$2</f>
+        <v>1267.2163636363637</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="32"/>
+      <c r="C17" s="1">
+        <v>1</v>
+      </c>
+      <c r="D17" s="1"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="68"/>
+      <c r="G17" s="63">
+        <f>B17*B2</f>
+        <v>0</v>
+      </c>
+      <c r="H17" s="11">
+        <f t="shared" ref="H17:J17" si="1">C17*C2</f>
+        <v>212.72727272727272</v>
+      </c>
+      <c r="I17" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J17" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K17" s="74">
+        <f>SUM(G17:J17)</f>
+        <v>212.72727272727272</v>
+      </c>
+      <c r="L17" s="61">
+        <f>K17*$L$2</f>
+        <v>276.54545454545456</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="32">
+        <v>0.5</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="F18" s="68"/>
+      <c r="G18" s="63">
+        <f>B18*B2</f>
+        <v>124.40454545454546</v>
+      </c>
+      <c r="H18" s="11">
+        <f>C18*C2</f>
+        <v>0</v>
+      </c>
+      <c r="I18" s="11">
+        <f>D18*D2</f>
+        <v>0</v>
+      </c>
+      <c r="J18" s="11">
+        <f>E18*E2</f>
+        <v>184.09090909090909</v>
+      </c>
+      <c r="K18" s="70">
+        <f>SUM(G18:J18)</f>
+        <v>308.49545454545455</v>
+      </c>
+      <c r="L18" s="58">
+        <f>K18*$L$2</f>
+        <v>401.04409090909093</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="33">
+        <v>2</v>
+      </c>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6">
+        <v>2</v>
+      </c>
+      <c r="E19" s="9"/>
+      <c r="F19" s="68"/>
+      <c r="G19" s="66">
+        <f>B19*B2</f>
+        <v>497.61818181818182</v>
+      </c>
+      <c r="H19" s="12">
+        <f>C19*C2</f>
+        <v>0</v>
+      </c>
+      <c r="I19" s="12">
+        <f>D19*D2</f>
+        <v>477.16363636363639</v>
+      </c>
+      <c r="J19" s="12">
+        <f>E19*E2</f>
+        <v>0</v>
+      </c>
+      <c r="K19" s="73">
+        <f>SUM(G19:J19)</f>
+        <v>974.78181818181815</v>
+      </c>
+      <c r="L19" s="60">
+        <f>K19*$L$2</f>
+        <v>1267.2163636363637</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="38">
+        <v>3041</v>
+      </c>
+      <c r="C20" s="13">
+        <v>2600</v>
+      </c>
+      <c r="D20" s="13">
+        <v>2916</v>
+      </c>
+      <c r="E20" s="14">
+        <v>4500</v>
+      </c>
+      <c r="F20" s="68"/>
+    </row>
+    <row r="21" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="32">
+        <f>B20*1.5</f>
+        <v>4561.5</v>
+      </c>
+      <c r="C21" s="1">
+        <f t="shared" ref="C21:E21" si="2">C20*1.5</f>
+        <v>3900</v>
+      </c>
+      <c r="D21" s="1">
+        <f t="shared" si="2"/>
+        <v>4374</v>
+      </c>
+      <c r="E21" s="3">
+        <f t="shared" si="2"/>
+        <v>6750</v>
+      </c>
+      <c r="F21" s="68"/>
+    </row>
+    <row r="22" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="33">
+        <f>B21*12</f>
+        <v>54738</v>
+      </c>
+      <c r="C22" s="6">
+        <f t="shared" ref="C22:E22" si="3">C21*12</f>
+        <v>46800</v>
+      </c>
+      <c r="D22" s="6">
+        <f t="shared" si="3"/>
+        <v>52488</v>
+      </c>
+      <c r="E22" s="9">
+        <f t="shared" si="3"/>
+        <v>81000</v>
+      </c>
+      <c r="F22" s="69"/>
+      <c r="G22" s="62" t="s">
+        <v>1</v>
+      </c>
+      <c r="H22" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="I22" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="J22" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="F15" s="1"/>
-      <c r="G15" s="7">
-        <f>E15*E2+B15*B2</f>
-        <v>2400</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="G16" s="7">
-        <f>F16*F2+B16*B2</f>
-        <v>450</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="10">
-        <v>1</v>
-      </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10">
-        <v>1</v>
-      </c>
-      <c r="F17" s="10"/>
-      <c r="G17" s="13">
-        <f>B17*B2+E17*E2</f>
-        <v>800</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" s="20">
-        <f>SUM(B3:B17)*B2</f>
-        <v>4000</v>
-      </c>
-      <c r="C18" s="20">
-        <f t="shared" ref="C18:F18" si="0">SUM(C3:C17)*C2</f>
-        <v>1200</v>
-      </c>
-      <c r="D18" s="20">
-        <f t="shared" si="0"/>
-        <v>6800</v>
-      </c>
-      <c r="E18" s="20">
-        <f t="shared" si="0"/>
-        <v>2000</v>
-      </c>
-      <c r="F18" s="20">
-        <f t="shared" si="0"/>
-        <v>5250</v>
-      </c>
-      <c r="G18" s="16">
-        <f>SUM(G4:G17)</f>
-        <v>19250</v>
+      <c r="K22" s="56" t="s">
+        <v>4</v>
+      </c>
+      <c r="L22" s="75" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="24" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A23" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" s="30"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="52">
+        <f>SUM(G4:G19)</f>
+        <v>2363.6863636363637</v>
+      </c>
+      <c r="H23" s="53">
+        <f>SUM(H4:H19)</f>
+        <v>2871.8181818181815</v>
+      </c>
+      <c r="I23" s="53">
+        <f>SUM(I4:I19)</f>
+        <v>1073.6181818181819</v>
+      </c>
+      <c r="J23" s="53">
+        <f>SUM(J4:J19)</f>
+        <v>3681.8181818181815</v>
+      </c>
+      <c r="K23" s="54">
+        <f>SUM(K4:K19)</f>
+        <v>9990.9409090909085</v>
+      </c>
+      <c r="L23" s="51">
+        <f>SUM(L4:L19)</f>
+        <v>12988.223181818183</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L24" s="75" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="L25" s="50">
+        <f>L27-L23</f>
+        <v>2545.6917436363638</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L26" s="75" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="L27" s="76">
+        <f>L23*1.196</f>
+        <v>15533.914925454546</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="G14:K14"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="G3:K3"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="G8:K8"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="71" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="44" orientation="portrait" r:id="rId1"/>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="12" max="52" man="1"/>
+  </colBreaks>
 </worksheet>
 </file>